--- a/D11Artifact/PlayerInfo.xlsx
+++ b/D11Artifact/PlayerInfo.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Stats!$A$1:$R$265</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Stats!$A$1:$R$265</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -466,6 +467,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -483,12 +485,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -525,12 +539,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,6 +569,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -552,18 +638,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R265"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B254"/>
+      <selection pane="topLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>18</v>
       </c>
@@ -678,7 +764,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>21</v>
       </c>
@@ -734,7 +820,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>24</v>
       </c>
@@ -790,7 +876,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
@@ -800,7 +886,7 @@
       <c r="C5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -846,7 +932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
@@ -856,7 +942,7 @@
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -902,7 +988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>33</v>
       </c>
@@ -958,7 +1044,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1156,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +1268,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>43</v>
       </c>
@@ -1238,7 +1324,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1334,7 @@
       <c r="C13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -1294,7 +1380,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>46</v>
       </c>
@@ -1350,7 +1436,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>49</v>
       </c>
@@ -1406,7 +1492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>39</v>
       </c>
@@ -1462,7 +1548,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1558,7 @@
       <c r="C17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -1518,7 +1604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>51</v>
       </c>
@@ -1630,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>30</v>
       </c>
@@ -1686,7 +1772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>49</v>
       </c>
@@ -1742,7 +1828,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>51</v>
       </c>
@@ -1798,7 +1884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1940,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>49</v>
       </c>
@@ -1910,7 +1996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +2052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>18</v>
       </c>
@@ -1976,7 +2062,7 @@
       <c r="C26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="0" t="n">
@@ -2022,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
@@ -2088,7 +2174,7 @@
       <c r="C28" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -2190,7 +2276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +2332,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>46</v>
       </c>
@@ -2358,7 +2444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>49</v>
       </c>
@@ -2414,7 +2500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>49</v>
       </c>
@@ -2470,7 +2556,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>49</v>
       </c>
@@ -2526,7 +2612,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>51</v>
       </c>
@@ -2582,7 +2668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>51</v>
       </c>
@@ -2638,7 +2724,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>37</v>
       </c>
@@ -2694,7 +2780,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>43</v>
       </c>
@@ -2750,7 +2836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>49</v>
       </c>
@@ -2806,7 +2892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>24</v>
       </c>
@@ -2816,7 +2902,7 @@
       <c r="C41" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -2862,7 +2948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>43</v>
       </c>
@@ -2918,7 +3004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>46</v>
       </c>
@@ -2974,7 +3060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>24</v>
       </c>
@@ -3030,7 +3116,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>43</v>
       </c>
@@ -3040,7 +3126,7 @@
       <c r="C45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -3086,7 +3172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>49</v>
       </c>
@@ -3142,7 +3228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>33</v>
       </c>
@@ -3198,7 +3284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>33</v>
       </c>
@@ -3254,7 +3340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>18</v>
       </c>
@@ -3310,7 +3396,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>30</v>
       </c>
@@ -3366,7 +3452,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>30</v>
       </c>
@@ -3376,7 +3462,7 @@
       <c r="C51" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E51" s="0" t="n">
@@ -3422,7 +3508,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>46</v>
       </c>
@@ -3534,7 +3620,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>51</v>
       </c>
@@ -3590,7 +3676,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>18</v>
       </c>
@@ -3600,7 +3686,7 @@
       <c r="C55" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E55" s="0" t="n">
@@ -3646,7 +3732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>24</v>
       </c>
@@ -3656,7 +3742,7 @@
       <c r="C56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E56" s="0" t="n">
@@ -3702,7 +3788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>37</v>
       </c>
@@ -3712,7 +3798,7 @@
       <c r="C57" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E57" s="0" t="n">
@@ -3758,7 +3844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>43</v>
       </c>
@@ -3768,7 +3854,7 @@
       <c r="C58" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E58" s="0" t="n">
@@ -3814,7 +3900,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>49</v>
       </c>
@@ -3870,7 +3956,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>18</v>
       </c>
@@ -3926,7 +4012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>39</v>
       </c>
@@ -3982,7 +4068,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>39</v>
       </c>
@@ -4038,7 +4124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>18</v>
       </c>
@@ -4094,7 +4180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>33</v>
       </c>
@@ -4150,7 +4236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>51</v>
       </c>
@@ -4206,7 +4292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>49</v>
       </c>
@@ -4262,7 +4348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>24</v>
       </c>
@@ -4318,7 +4404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>27</v>
       </c>
@@ -4374,7 +4460,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>46</v>
       </c>
@@ -4430,7 +4516,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>33</v>
       </c>
@@ -4486,7 +4572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>30</v>
       </c>
@@ -4496,10 +4582,10 @@
       <c r="C71" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F71" s="0" t="n">
@@ -4542,7 +4628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>43</v>
       </c>
@@ -4552,7 +4638,7 @@
       <c r="C72" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E72" s="0" t="n">
@@ -4654,7 +4740,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>37</v>
       </c>
@@ -4710,7 +4796,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>21</v>
       </c>
@@ -4766,7 +4852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>30</v>
       </c>
@@ -4822,7 +4908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>30</v>
       </c>
@@ -4878,7 +4964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>30</v>
       </c>
@@ -4888,7 +4974,7 @@
       <c r="C78" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E78" s="0" t="n">
@@ -4934,7 +5020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>46</v>
       </c>
@@ -4990,7 +5076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>37</v>
       </c>
@@ -5046,7 +5132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>39</v>
       </c>
@@ -5102,7 +5188,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>18</v>
       </c>
@@ -5112,7 +5198,7 @@
       <c r="C82" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E82" s="0" t="n">
@@ -5158,7 +5244,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>46</v>
       </c>
@@ -5214,7 +5300,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>37</v>
       </c>
@@ -5270,7 +5356,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>18</v>
       </c>
@@ -5326,7 +5412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>27</v>
       </c>
@@ -5336,7 +5422,7 @@
       <c r="C86" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E86" s="0" t="n">
@@ -5382,7 +5468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>27</v>
       </c>
@@ -5392,7 +5478,7 @@
       <c r="C87" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E87" s="0" t="n">
@@ -5438,7 +5524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>24</v>
       </c>
@@ -5494,7 +5580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>51</v>
       </c>
@@ -5550,7 +5636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>37</v>
       </c>
@@ -5606,7 +5692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>37</v>
       </c>
@@ -5662,7 +5748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>27</v>
       </c>
@@ -5718,7 +5804,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +5814,7 @@
       <c r="C93" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E93" s="0" t="n">
@@ -5774,7 +5860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>43</v>
       </c>
@@ -5830,7 +5916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>33</v>
       </c>
@@ -5886,7 +5972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>30</v>
       </c>
@@ -5942,7 +6028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>30</v>
       </c>
@@ -5952,7 +6038,7 @@
       <c r="C97" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E97" s="0" t="n">
@@ -5998,7 +6084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>24</v>
       </c>
@@ -6054,7 +6140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>49</v>
       </c>
@@ -6110,7 +6196,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>33</v>
       </c>
@@ -6166,7 +6252,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>51</v>
       </c>
@@ -6222,7 +6308,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>21</v>
       </c>
@@ -6278,7 +6364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>43</v>
       </c>
@@ -6334,7 +6420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>33</v>
       </c>
@@ -6446,7 +6532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>49</v>
       </c>
@@ -6502,7 +6588,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>33</v>
       </c>
@@ -6558,7 +6644,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>30</v>
       </c>
@@ -6568,7 +6654,7 @@
       <c r="C108" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E108" s="0" t="n">
@@ -6614,7 +6700,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>39</v>
       </c>
@@ -6670,7 +6756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>21</v>
       </c>
@@ -6726,7 +6812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>27</v>
       </c>
@@ -6782,7 +6868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>30</v>
       </c>
@@ -6838,7 +6924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>24</v>
       </c>
@@ -6894,7 +6980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>33</v>
       </c>
@@ -6950,7 +7036,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>33</v>
       </c>
@@ -7006,7 +7092,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>51</v>
       </c>
@@ -7062,7 +7148,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>37</v>
       </c>
@@ -7072,7 +7158,7 @@
       <c r="C117" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E117" s="0" t="n">
@@ -7118,7 +7204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>27</v>
       </c>
@@ -7174,7 +7260,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>43</v>
       </c>
@@ -7230,7 +7316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>43</v>
       </c>
@@ -7398,7 +7484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>49</v>
       </c>
@@ -7454,7 +7540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>49</v>
       </c>
@@ -7510,7 +7596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>24</v>
       </c>
@@ -7520,7 +7606,7 @@
       <c r="C125" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="0" t="n">
@@ -7566,7 +7652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>51</v>
       </c>
@@ -7622,7 +7708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>33</v>
       </c>
@@ -7678,7 +7764,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>51</v>
       </c>
@@ -7846,7 +7932,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>37</v>
       </c>
@@ -7902,7 +7988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>21</v>
       </c>
@@ -7958,7 +8044,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>37</v>
       </c>
@@ -8014,7 +8100,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>39</v>
       </c>
@@ -8070,7 +8156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>18</v>
       </c>
@@ -8126,7 +8212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>43</v>
       </c>
@@ -8238,7 +8324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>33</v>
       </c>
@@ -8294,7 +8380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>37</v>
       </c>
@@ -8350,7 +8436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>21</v>
       </c>
@@ -8406,7 +8492,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>30</v>
       </c>
@@ -8462,7 +8548,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>51</v>
       </c>
@@ -8518,7 +8604,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>18</v>
       </c>
@@ -8574,7 +8660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>21</v>
       </c>
@@ -8630,7 +8716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>49</v>
       </c>
@@ -8742,7 +8828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>46</v>
       </c>
@@ -8798,7 +8884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>46</v>
       </c>
@@ -8854,7 +8940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>46</v>
       </c>
@@ -8910,7 +8996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>46</v>
       </c>
@@ -8966,7 +9052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>51</v>
       </c>
@@ -9078,7 +9164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>39</v>
       </c>
@@ -9134,7 +9220,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>21</v>
       </c>
@@ -9190,7 +9276,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>46</v>
       </c>
@@ -9246,7 +9332,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>39</v>
       </c>
@@ -9302,7 +9388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>39</v>
       </c>
@@ -9358,7 +9444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>21</v>
       </c>
@@ -9414,7 +9500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>21</v>
       </c>
@@ -9526,7 +9612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>49</v>
       </c>
@@ -9638,7 +9724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>18</v>
       </c>
@@ -9750,7 +9836,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>49</v>
       </c>
@@ -9862,7 +9948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>46</v>
       </c>
@@ -9918,7 +10004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>24</v>
       </c>
@@ -9974,7 +10060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>51</v>
       </c>
@@ -10030,7 +10116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>51</v>
       </c>
@@ -10198,7 +10284,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>27</v>
       </c>
@@ -10254,7 +10340,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>49</v>
       </c>
@@ -10366,7 +10452,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>24</v>
       </c>
@@ -10422,7 +10508,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>39</v>
       </c>
@@ -10478,7 +10564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>33</v>
       </c>
@@ -10534,7 +10620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>24</v>
       </c>
@@ -10590,7 +10676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>37</v>
       </c>
@@ -10646,7 +10732,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>18</v>
       </c>
@@ -10702,7 +10788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>21</v>
       </c>
@@ -10758,7 +10844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>33</v>
       </c>
@@ -10814,7 +10900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>33</v>
       </c>
@@ -10870,7 +10956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>33</v>
       </c>
@@ -10982,7 +11068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>46</v>
       </c>
@@ -11038,7 +11124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>21</v>
       </c>
@@ -11094,7 +11180,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>46</v>
       </c>
@@ -11150,7 +11236,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>51</v>
       </c>
@@ -11206,7 +11292,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>39</v>
       </c>
@@ -11262,7 +11348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>39</v>
       </c>
@@ -11318,7 +11404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>51</v>
       </c>
@@ -11374,7 +11460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>37</v>
       </c>
@@ -11486,7 +11572,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>27</v>
       </c>
@@ -11542,7 +11628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>33</v>
       </c>
@@ -11654,7 +11740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>39</v>
       </c>
@@ -11710,7 +11796,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>27</v>
       </c>
@@ -11766,7 +11852,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>49</v>
       </c>
@@ -11878,7 +11964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>21</v>
       </c>
@@ -11934,7 +12020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>43</v>
       </c>
@@ -11990,7 +12076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>43</v>
       </c>
@@ -12158,7 +12244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>46</v>
       </c>
@@ -12270,7 +12356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>21</v>
       </c>
@@ -12326,7 +12412,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>49</v>
       </c>
@@ -12382,7 +12468,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>46</v>
       </c>
@@ -12438,7 +12524,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>27</v>
       </c>
@@ -12662,7 +12748,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>49</v>
       </c>
@@ -12718,7 +12804,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>30</v>
       </c>
@@ -12774,7 +12860,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>46</v>
       </c>
@@ -12830,7 +12916,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>51</v>
       </c>
@@ -13054,7 +13140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>39</v>
       </c>
@@ -13110,7 +13196,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>30</v>
       </c>
@@ -13166,7 +13252,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>46</v>
       </c>
@@ -13222,7 +13308,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>46</v>
       </c>
@@ -13278,7 +13364,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>39</v>
       </c>
@@ -13334,7 +13420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>18</v>
       </c>
@@ -13446,7 +13532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>21</v>
       </c>
@@ -13558,7 +13644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>27</v>
       </c>
@@ -13614,7 +13700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>49</v>
       </c>
@@ -13670,7 +13756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>33</v>
       </c>
@@ -13726,7 +13812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>30</v>
       </c>
@@ -13838,7 +13924,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>39</v>
       </c>
@@ -13894,7 +13980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>39</v>
       </c>
@@ -13950,7 +14036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>39</v>
       </c>
@@ -14006,7 +14092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>21</v>
       </c>
@@ -14062,7 +14148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>21</v>
       </c>
@@ -14118,7 +14204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>21</v>
       </c>
@@ -14286,7 +14372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>46</v>
       </c>
@@ -14398,7 +14484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>24</v>
       </c>
@@ -14454,7 +14540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>39</v>
       </c>
@@ -14734,7 +14820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>39</v>
       </c>
@@ -14790,7 +14876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>43</v>
       </c>
@@ -14846,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>27</v>
       </c>
@@ -14902,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>33</v>
       </c>
@@ -14958,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>24</v>
       </c>
@@ -15014,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>51</v>
       </c>
@@ -15070,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>51</v>
       </c>
@@ -15126,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>51</v>
       </c>
@@ -15182,7 +15268,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>21</v>
       </c>
@@ -15294,7 +15380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>33</v>
       </c>
@@ -15350,7 +15436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>30</v>
       </c>
@@ -15407,7 +15493,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R265"/>
+  <autoFilter ref="A1:R265">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="RAJ"/>
+        <filter val="MUM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
